--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2180816666666666</v>
+        <v>0.34281</v>
       </c>
       <c r="H2">
-        <v>0.654245</v>
+        <v>1.02843</v>
       </c>
       <c r="I2">
-        <v>0.08978107248204534</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="J2">
-        <v>0.08978107248204537</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N2">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O2">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P2">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q2">
-        <v>0.5705036754288889</v>
+        <v>0.8775034409699999</v>
       </c>
       <c r="R2">
-        <v>5.134533078860001</v>
+        <v>7.897530968729999</v>
       </c>
       <c r="S2">
-        <v>0.007143073503221331</v>
+        <v>0.007881283610654311</v>
       </c>
       <c r="T2">
-        <v>0.007143073503221334</v>
+        <v>0.007881283610654311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2180816666666666</v>
+        <v>0.34281</v>
       </c>
       <c r="H3">
-        <v>0.654245</v>
+        <v>1.02843</v>
       </c>
       <c r="I3">
-        <v>0.08978107248204534</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="J3">
-        <v>0.08978107248204537</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>36.958952</v>
       </c>
       <c r="O3">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P3">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q3">
-        <v>2.686689950137777</v>
+        <v>4.223299445039999</v>
       </c>
       <c r="R3">
-        <v>24.18020955124</v>
+        <v>38.00969500535999</v>
       </c>
       <c r="S3">
-        <v>0.03363908879250035</v>
+        <v>0.03793149877826763</v>
       </c>
       <c r="T3">
-        <v>0.03363908879250037</v>
+        <v>0.03793149877826763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.34281</v>
+      </c>
+      <c r="H4">
+        <v>1.02843</v>
+      </c>
+      <c r="I4">
+        <v>0.1253250783350286</v>
+      </c>
+      <c r="J4">
+        <v>0.1253250783350286</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.2180816666666666</v>
-      </c>
-      <c r="H4">
-        <v>0.654245</v>
-      </c>
-      <c r="I4">
-        <v>0.08978107248204534</v>
-      </c>
-      <c r="J4">
-        <v>0.08978107248204537</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N4">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O4">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P4">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q4">
-        <v>0.02542875849666666</v>
+        <v>0.05668169091000001</v>
       </c>
       <c r="R4">
-        <v>0.2288588264699999</v>
+        <v>0.5101352181900001</v>
       </c>
       <c r="S4">
-        <v>0.0003183844361752838</v>
+        <v>0.0005090857320164389</v>
       </c>
       <c r="T4">
-        <v>0.0003183844361752839</v>
+        <v>0.0005090857320164391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2180816666666666</v>
+        <v>0.34281</v>
       </c>
       <c r="H5">
-        <v>0.654245</v>
+        <v>1.02843</v>
       </c>
       <c r="I5">
-        <v>0.08978107248204534</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="J5">
-        <v>0.08978107248204537</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N5">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O5">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P5">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q5">
-        <v>3.874955670856111</v>
+        <v>8.76203254056</v>
       </c>
       <c r="R5">
-        <v>34.874601037705</v>
+        <v>78.85829286503999</v>
       </c>
       <c r="S5">
-        <v>0.04851694103082008</v>
+        <v>0.07869606001954831</v>
       </c>
       <c r="T5">
-        <v>0.0485169410308201</v>
+        <v>0.07869606001954831</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2180816666666666</v>
+        <v>0.34281</v>
       </c>
       <c r="H6">
-        <v>0.654245</v>
+        <v>1.02843</v>
       </c>
       <c r="I6">
-        <v>0.08978107248204534</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="J6">
-        <v>0.08978107248204537</v>
+        <v>0.1253250783350286</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N6">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O6">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P6">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q6">
-        <v>0.01306519995611111</v>
+        <v>0.03419815424999999</v>
       </c>
       <c r="R6">
-        <v>0.117586799605</v>
+        <v>0.30778338825</v>
       </c>
       <c r="S6">
-        <v>0.0001635847193282779</v>
+        <v>0.0003071501945419352</v>
       </c>
       <c r="T6">
-        <v>0.000163584719328278</v>
+        <v>0.0003071501945419352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.299691</v>
       </c>
       <c r="I7">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J7">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N7">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O7">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P7">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q7">
-        <v>3.749343928816445</v>
+        <v>3.668692713755666</v>
       </c>
       <c r="R7">
-        <v>33.74409535934801</v>
+        <v>33.018234423801</v>
       </c>
       <c r="S7">
-        <v>0.04694420110836037</v>
+        <v>0.03295030698168844</v>
       </c>
       <c r="T7">
-        <v>0.04694420110836039</v>
+        <v>0.03295030698168844</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.299691</v>
       </c>
       <c r="I8">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J8">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>36.958952</v>
       </c>
       <c r="O8">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P8">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q8">
         <v>17.65689703153689</v>
@@ -948,10 +948,10 @@
         <v>158.912073283832</v>
       </c>
       <c r="S8">
-        <v>0.2210757244294028</v>
+        <v>0.1585851481514817</v>
       </c>
       <c r="T8">
-        <v>0.2210757244294029</v>
+        <v>0.1585851481514817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>4.299691</v>
       </c>
       <c r="I9">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J9">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N9">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O9">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P9">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q9">
-        <v>0.1671175233273333</v>
+        <v>0.2369765139781111</v>
       </c>
       <c r="R9">
-        <v>1.504057709946</v>
+        <v>2.132788625803</v>
       </c>
       <c r="S9">
-        <v>0.002092419039905452</v>
+        <v>0.002128400902520828</v>
       </c>
       <c r="T9">
-        <v>0.002092419039905453</v>
+        <v>0.002128400902520828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.299691</v>
       </c>
       <c r="I10">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J10">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N10">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O10">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P10">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q10">
-        <v>25.46616638014656</v>
+        <v>36.63256853296089</v>
       </c>
       <c r="R10">
-        <v>229.195497421319</v>
+        <v>329.693116796648</v>
       </c>
       <c r="S10">
-        <v>0.3188528069725376</v>
+        <v>0.329014848848742</v>
       </c>
       <c r="T10">
-        <v>0.3188528069725377</v>
+        <v>0.329014848848742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>4.299691</v>
       </c>
       <c r="I11">
-        <v>0.5900402285403756</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="J11">
-        <v>0.5900402285403757</v>
+        <v>0.5239628476332056</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N11">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O11">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P11">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q11">
-        <v>0.08586435152655557</v>
+        <v>0.1429766693361111</v>
       </c>
       <c r="R11">
-        <v>0.7727791637390001</v>
+        <v>1.286790024025</v>
       </c>
       <c r="S11">
-        <v>0.001075076990169314</v>
+        <v>0.001284142748772603</v>
       </c>
       <c r="T11">
-        <v>0.001075076990169314</v>
+        <v>0.001284142748772603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H12">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I12">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J12">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N12">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O12">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P12">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q12">
-        <v>0.7531002548924446</v>
+        <v>1.243297537481</v>
       </c>
       <c r="R12">
-        <v>6.777902294032001</v>
+        <v>11.189677837329</v>
       </c>
       <c r="S12">
-        <v>0.009429300296702435</v>
+        <v>0.01116665764237256</v>
       </c>
       <c r="T12">
-        <v>0.009429300296702437</v>
+        <v>0.01116665764237256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H13">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I13">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J13">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>36.958952</v>
       </c>
       <c r="O13">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P13">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q13">
-        <v>3.546597460120889</v>
+        <v>5.983814484258667</v>
       </c>
       <c r="R13">
-        <v>31.919377141088</v>
+        <v>53.85433035832799</v>
       </c>
       <c r="S13">
-        <v>0.04440568472225263</v>
+        <v>0.05374353742915523</v>
       </c>
       <c r="T13">
-        <v>0.04440568472225265</v>
+        <v>0.05374353742915523</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H14">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I14">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J14">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N14">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O14">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P14">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q14">
-        <v>0.03356753922933333</v>
+        <v>0.08030989217633334</v>
       </c>
       <c r="R14">
-        <v>0.302107853064</v>
+        <v>0.7227890295870001</v>
       </c>
       <c r="S14">
-        <v>0.000420287213499785</v>
+        <v>0.0007213020569846288</v>
       </c>
       <c r="T14">
-        <v>0.0004202872134997852</v>
+        <v>0.0007213020569846289</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H15">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I15">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J15">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N15">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O15">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P15">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q15">
-        <v>5.115181950799556</v>
+        <v>12.41455357595467</v>
       </c>
       <c r="R15">
-        <v>46.036637557196</v>
+        <v>111.730982183592</v>
       </c>
       <c r="S15">
-        <v>0.06404537294075092</v>
+        <v>0.1115011213216501</v>
       </c>
       <c r="T15">
-        <v>0.06404537294075094</v>
+        <v>0.1115011213216501</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2878813333333333</v>
+        <v>0.485713</v>
       </c>
       <c r="H16">
-        <v>0.863644</v>
+        <v>1.457139</v>
       </c>
       <c r="I16">
-        <v>0.1185165871541755</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="J16">
-        <v>0.1185165871541756</v>
+        <v>0.1775678065789847</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N16">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O16">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P16">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q16">
-        <v>0.01724687471955556</v>
+        <v>0.04845391935833333</v>
       </c>
       <c r="R16">
-        <v>0.155221872476</v>
+        <v>0.4360852742249999</v>
       </c>
       <c r="S16">
-        <v>0.0002159419809697457</v>
+        <v>0.0004351881288222251</v>
       </c>
       <c r="T16">
-        <v>0.0002159419809697458</v>
+        <v>0.0004351881288222251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H17">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I17">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J17">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N17">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O17">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P17">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q17">
-        <v>0.5577942300844446</v>
+        <v>0.6414146312316666</v>
       </c>
       <c r="R17">
-        <v>5.020148070760001</v>
+        <v>5.772731681085</v>
       </c>
       <c r="S17">
-        <v>0.006983943060788526</v>
+        <v>0.005760855610061179</v>
       </c>
       <c r="T17">
-        <v>0.006983943060788529</v>
+        <v>0.005760855610061179</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H18">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I18">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J18">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>36.958952</v>
       </c>
       <c r="O18">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P18">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q18">
-        <v>2.626836980648889</v>
+        <v>3.087037531302222</v>
       </c>
       <c r="R18">
-        <v>23.64153282584</v>
+        <v>27.78333778172</v>
       </c>
       <c r="S18">
-        <v>0.03288969106053344</v>
+        <v>0.02772617993843141</v>
       </c>
       <c r="T18">
-        <v>0.03288969106053346</v>
+        <v>0.02772617993843141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H19">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I19">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J19">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N19">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O19">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P19">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q19">
-        <v>0.02486226711333333</v>
+        <v>0.04143170747277778</v>
       </c>
       <c r="R19">
-        <v>0.22376040402</v>
+        <v>0.372885367255</v>
       </c>
       <c r="S19">
-        <v>0.0003112915991535951</v>
+        <v>0.0003721182411611658</v>
       </c>
       <c r="T19">
-        <v>0.0003112915991535952</v>
+        <v>0.0003721182411611659</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H20">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I20">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J20">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N20">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O20">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P20">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q20">
-        <v>3.788631008225556</v>
+        <v>6.404642544342222</v>
       </c>
       <c r="R20">
-        <v>34.09767907403</v>
+        <v>57.64178289908</v>
       </c>
       <c r="S20">
-        <v>0.04743610064912179</v>
+        <v>0.05752319815524163</v>
       </c>
       <c r="T20">
-        <v>0.04743610064912181</v>
+        <v>0.05752319815524163</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2132233333333333</v>
+        <v>0.2505783333333333</v>
       </c>
       <c r="H21">
-        <v>0.6396700000000001</v>
+        <v>0.751735</v>
       </c>
       <c r="I21">
-        <v>0.08778096681608565</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="J21">
-        <v>0.08778096681608566</v>
+        <v>0.09160686460156038</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N21">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O21">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P21">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q21">
-        <v>0.01277413882555556</v>
+        <v>0.02499727690277778</v>
       </c>
       <c r="R21">
-        <v>0.11496724943</v>
+        <v>0.224975492125</v>
       </c>
       <c r="S21">
-        <v>0.0001599404464882721</v>
+        <v>0.0002245126566649959</v>
       </c>
       <c r="T21">
-        <v>0.0001599404464882722</v>
+        <v>0.0002245126566649959</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H22">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I22">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J22">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.616009333333334</v>
+        <v>2.559737</v>
       </c>
       <c r="N22">
-        <v>7.848028000000001</v>
+        <v>7.679211</v>
       </c>
       <c r="O22">
-        <v>0.07956101777075365</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="P22">
-        <v>0.07956101777075367</v>
+        <v>0.06288672399298613</v>
       </c>
       <c r="Q22">
-        <v>0.7236448618022224</v>
+        <v>0.5709100885493333</v>
       </c>
       <c r="R22">
-        <v>6.512803756220001</v>
+        <v>5.138190796944</v>
       </c>
       <c r="S22">
-        <v>0.009060499801680978</v>
+        <v>0.005127620148209642</v>
       </c>
       <c r="T22">
-        <v>0.00906049980168098</v>
+        <v>0.005127620148209642</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H23">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I23">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J23">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>36.958952</v>
       </c>
       <c r="O23">
-        <v>0.3746790705716685</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="P23">
-        <v>0.3746790705716686</v>
+        <v>0.3026648718851485</v>
       </c>
       <c r="Q23">
-        <v>3.407882300164445</v>
+        <v>2.747709179889778</v>
       </c>
       <c r="R23">
-        <v>30.67094070148</v>
+        <v>24.729382619008</v>
       </c>
       <c r="S23">
-        <v>0.04266888156697921</v>
+        <v>0.02467850758781248</v>
       </c>
       <c r="T23">
-        <v>0.04266888156697922</v>
+        <v>0.02467850758781248</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H24">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I24">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J24">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.116602</v>
+        <v>0.1653443333333333</v>
       </c>
       <c r="N24">
-        <v>0.349806</v>
+        <v>0.4960330000000001</v>
       </c>
       <c r="O24">
-        <v>0.003546231152885316</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="P24">
-        <v>0.003546231152885317</v>
+        <v>0.004062121793816174</v>
       </c>
       <c r="Q24">
-        <v>0.03225463957666667</v>
+        <v>0.03687751827022222</v>
       </c>
       <c r="R24">
-        <v>0.29029175619</v>
+        <v>0.331897664432</v>
       </c>
       <c r="S24">
-        <v>0.0004038488641512002</v>
+        <v>0.0003312148611331129</v>
       </c>
       <c r="T24">
-        <v>0.0004038488641512003</v>
+        <v>0.000331214861133113</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H25">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I25">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J25">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.76836966666667</v>
+        <v>25.55944266666667</v>
       </c>
       <c r="N25">
-        <v>53.305109</v>
+        <v>76.67832799999999</v>
       </c>
       <c r="O25">
-        <v>0.5403916403485003</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="P25">
-        <v>0.5403916403485004</v>
+        <v>0.6279354544600559</v>
       </c>
       <c r="Q25">
-        <v>4.915116031142779</v>
+        <v>5.700641775345778</v>
       </c>
       <c r="R25">
-        <v>44.23604428028501</v>
+        <v>51.305775978112</v>
       </c>
       <c r="S25">
-        <v>0.06154041875526985</v>
+        <v>0.05120022611487399</v>
       </c>
       <c r="T25">
-        <v>0.06154041875526986</v>
+        <v>0.05120022611487399</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2766216666666667</v>
+        <v>0.2230346666666667</v>
       </c>
       <c r="H26">
-        <v>0.8298650000000001</v>
+        <v>0.669104</v>
       </c>
       <c r="I26">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="J26">
-        <v>0.1138811450073177</v>
+        <v>0.08153740285122078</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.05990966666666667</v>
+        <v>0.09975833333333332</v>
       </c>
       <c r="N26">
-        <v>0.179729</v>
+        <v>0.299275</v>
       </c>
       <c r="O26">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="P26">
-        <v>0.001822040156192076</v>
+        <v>0.00245082786799333</v>
       </c>
       <c r="Q26">
-        <v>0.01657231184277778</v>
+        <v>0.02224956662222222</v>
       </c>
       <c r="R26">
-        <v>0.149150806585</v>
+        <v>0.2002460996</v>
       </c>
       <c r="S26">
-        <v>0.0002074960192364656</v>
+        <v>0.0001998341391915707</v>
       </c>
       <c r="T26">
-        <v>0.0002074960192364656</v>
+        <v>0.0001998341391915707</v>
       </c>
     </row>
   </sheetData>
